--- a/ReadExcelFileJDBC/excelWriter/DSDVVT.xlsx
+++ b/ReadExcelFileJDBC/excelWriter/DSDVVT.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="danhsachdonvivantai" r:id="rId3" sheetId="1"/>
+    <sheet name="DanhSachDonViVanTai" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
   <si>
     <t>Bộ Giao Thông Vận Tải</t>
   </si>
@@ -42,6 +42,171 @@
   </si>
   <si>
     <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI TẤN THỊNH</t>
+  </si>
+  <si>
+    <t>3702568293</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Anh TOTO</t>
+  </si>
+  <si>
+    <t>05/6/2024</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>1.CN 2 CÔNG TY TNHH NHKS THẮNG LỢI</t>
+  </si>
+  <si>
+    <t>3700595943003</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>06513616161</t>
+  </si>
+  <si>
+    <t>1.CN CÔNG TY CỔ PHẦN ÁNH DƯƠNG VIỆT NAM TẠI BÌNH PHƯỚC</t>
+  </si>
+  <si>
+    <t>0302035520018</t>
+  </si>
+  <si>
+    <t>0919608959</t>
+  </si>
+  <si>
+    <t>1.CN CÔNG TY CỔ PHẦN TẬP ĐOÀN MAI LINH TẠI BÌNH PHƯỚC</t>
+  </si>
+  <si>
+    <t>0315161593023</t>
+  </si>
+  <si>
+    <t>02713888333</t>
+  </si>
+  <si>
+    <t>1.CN DNTN ĐẠI BÌNH</t>
+  </si>
+  <si>
+    <t>5800187980003</t>
+  </si>
+  <si>
+    <t>06513884808</t>
+  </si>
+  <si>
+    <t>1.CN DNTN PHƯỚC HƯNG AN TOÀN</t>
+  </si>
+  <si>
+    <t>1900346700003</t>
+  </si>
+  <si>
+    <t>0913844490</t>
+  </si>
+  <si>
+    <t>1.CN HTX HÒA BÌNH XANH TẠI BÌNH PHƯỚC</t>
+  </si>
+  <si>
+    <t>440117000001</t>
+  </si>
+  <si>
+    <t>0966577479</t>
+  </si>
+  <si>
+    <t>An Trung Mười</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>An Trung Út</t>
+  </si>
+  <si>
+    <t>Bạch Thanh Bình</t>
+  </si>
+  <si>
+    <t>Bạch Văn Hiền</t>
+  </si>
+  <si>
+    <t>BÙI ĐỨC CƯỜNG</t>
+  </si>
+  <si>
+    <t>BÙI DUY DŨNG</t>
+  </si>
+  <si>
+    <t>BÙI NGỌC THẾ</t>
+  </si>
+  <si>
+    <t>Bùi Nhật Khánh</t>
+  </si>
+  <si>
+    <t>Bùi Quang Ghi</t>
+  </si>
+  <si>
+    <t>BÙI QUANG KHÁNH (TIỀN AN, BN)</t>
+  </si>
+  <si>
+    <t>Bùi Quang Vinh</t>
+  </si>
+  <si>
+    <t>BÙI VĂN ĐÔ</t>
+  </si>
+  <si>
+    <t>BÙI VĂN LUẬN (XUÂN ÁI, HÒA LONG, BN)</t>
+  </si>
+  <si>
+    <t>Cao Sỹ Khánh</t>
+  </si>
+  <si>
+    <t>CAO VĂN ÁNH</t>
+  </si>
+  <si>
+    <t>CAO XUÂN MIỀN</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY CỔ PHẦN SẢN XUẤT VÀ XUẤT NHẬP KHẨU BAO BÌ THĂNG LONG TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH KIẾN VƯƠNG TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH MTV VẬN TẢI TOÀN HẰNG TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH CÔNG TY TNHH SẢN XUẤT - THƯƠNG MẠI ĐẠI LỘC PHÚ TẠI BẮC NINH</t>
+  </si>
+  <si>
+    <t>Chi nhánh công ty TNHH thương mại và du lịch Nguyên Minh</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH HỢP TÁC XÃ VẬN TẢI CON ĐƯỜNG XANH</t>
+  </si>
+  <si>
+    <t>CHU MINH ĐỨC</t>
+  </si>
+  <si>
+    <t>Chu thị Yên</t>
+  </si>
+  <si>
+    <t>CHU VĂN BẢN</t>
+  </si>
+  <si>
+    <t>CHU VĂN HỒNG</t>
+  </si>
+  <si>
+    <t>CHU VĂN TỈNH</t>
+  </si>
+  <si>
+    <t>CN Bắc Ninh công ty CP ĐT&amp;DV vận tải Nam Hà Nội</t>
+  </si>
+  <si>
+    <t>.CÔNG TY TRÁCH NHIỆM HỮU HẠN DỊCH VỤ VẬN TẢI TẤN THỊNH</t>
   </si>
 </sst>
 </file>
@@ -210,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
@@ -248,6 +413,474 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -260,14 +893,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="487" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
@@ -280,7 +913,7 @@
       <c r="I1"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="488" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
@@ -293,7 +926,7 @@
       <c r="I2"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="489" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
@@ -308,7 +941,7 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="490" t="s">
         <v>3</v>
       </c>
       <c r="D4"/>
@@ -321,7 +954,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="490" t="s">
         <v>4</v>
       </c>
       <c r="D5"/>
@@ -363,6 +996,974 @@
       </c>
       <c r="I7" s="18"/>
     </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="90"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="91" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="100" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="107"/>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="109" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="116"/>
+      <c r="I18" s="117"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="118" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="127" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B20" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="136" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="143"/>
+      <c r="I21" s="144"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="145" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B22" s="146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="152"/>
+      <c r="I22" s="153"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="154" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B23" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="161"/>
+      <c r="I23" s="162"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="163" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="170"/>
+      <c r="I24" s="171"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="172" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B25" s="173" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="178" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="181" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B26" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="188"/>
+      <c r="I26" s="189"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="190" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B27" s="191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="192"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="199" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B28" s="200" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="205" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="206"/>
+      <c r="I28" s="207"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="208" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B29" s="209" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="214" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="215"/>
+      <c r="I29" s="216"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="217" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B30" s="218" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="219"/>
+      <c r="D30" s="220"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="223" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="224"/>
+      <c r="I30" s="225"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="226" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B31" s="227" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="232" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="233"/>
+      <c r="I31" s="234"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="235" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B32" s="236" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="237"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="241" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="242"/>
+      <c r="I32" s="243"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="244" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B33" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="246"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="248"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="250" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="251"/>
+      <c r="I33" s="252"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="253" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B34" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="255"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="257"/>
+      <c r="F34" s="258"/>
+      <c r="G34" s="259" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="260"/>
+      <c r="I34" s="261"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="262" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B35" s="263" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="268" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="269"/>
+      <c r="I35" s="270"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="271" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B36" s="272" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="273"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="276"/>
+      <c r="G36" s="277" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="278"/>
+      <c r="I36" s="279"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="280" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B37" s="281" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="282"/>
+      <c r="D37" s="283"/>
+      <c r="E37" s="284"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="286" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="287"/>
+      <c r="I37" s="288"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="289" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B38" s="290" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="291"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="295" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="296"/>
+      <c r="I38" s="297"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="298" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B39" s="299" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="300"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="304" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="305"/>
+      <c r="I39" s="306"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="307" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B40" s="308" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="309"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="313" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="314"/>
+      <c r="I40" s="315"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="316" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B41" s="317" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="318"/>
+      <c r="D41" s="319"/>
+      <c r="E41" s="320"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="322" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="323"/>
+      <c r="I41" s="324"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="325" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B42" s="326" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="327"/>
+      <c r="D42" s="328"/>
+      <c r="E42" s="329"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="331" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="332"/>
+      <c r="I42" s="333"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="334" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B43" s="335" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="336"/>
+      <c r="D43" s="337"/>
+      <c r="E43" s="338"/>
+      <c r="F43" s="339"/>
+      <c r="G43" s="340" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="341"/>
+      <c r="I43" s="342"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="343" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B44" s="344" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="345"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="347" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="348"/>
+      <c r="G44" s="349" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="350"/>
+      <c r="I44" s="351"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="352" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B45" s="353" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="354"/>
+      <c r="D45" s="355"/>
+      <c r="E45" s="356" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="357"/>
+      <c r="G45" s="358" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="359"/>
+      <c r="I45" s="360"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="361" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B46" s="362" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="363"/>
+      <c r="D46" s="364"/>
+      <c r="E46" s="365" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="366"/>
+      <c r="G46" s="367" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="368" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="369"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="370" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B47" s="371" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="372"/>
+      <c r="D47" s="373"/>
+      <c r="E47" s="374" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="375"/>
+      <c r="G47" s="376" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="377" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="378"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="379" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B48" s="380" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="381"/>
+      <c r="D48" s="382"/>
+      <c r="E48" s="383" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="384"/>
+      <c r="G48" s="385" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="386" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="387"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="388" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B49" s="389" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="390"/>
+      <c r="D49" s="391"/>
+      <c r="E49" s="392" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="393"/>
+      <c r="G49" s="394" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="395" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="396"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="397" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B50" s="398" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="399"/>
+      <c r="D50" s="400"/>
+      <c r="E50" s="401" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="402"/>
+      <c r="G50" s="403" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="404" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="405"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="406" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B51" s="407" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="408"/>
+      <c r="D51" s="409"/>
+      <c r="E51" s="410" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="411"/>
+      <c r="G51" s="412" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="413" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="414"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="415" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B52" s="416" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="417"/>
+      <c r="D52" s="418"/>
+      <c r="E52" s="419" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="420"/>
+      <c r="G52" s="421" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="422"/>
+      <c r="I52" s="423"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="424" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B53" s="425" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="426"/>
+      <c r="D53" s="427"/>
+      <c r="E53" s="428" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="429"/>
+      <c r="G53" s="430" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="431"/>
+      <c r="I53" s="432"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="433" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B54" s="434" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="435"/>
+      <c r="D54" s="436"/>
+      <c r="E54" s="437" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="438"/>
+      <c r="G54" s="439" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="440" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="441"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="442" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B55" s="443" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="444"/>
+      <c r="D55" s="445"/>
+      <c r="E55" s="446" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="447"/>
+      <c r="G55" s="448" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="449" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="450"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="451" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B56" s="452" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="453"/>
+      <c r="D56" s="454"/>
+      <c r="E56" s="455" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="456"/>
+      <c r="G56" s="457" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="458" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="459"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="460" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B57" s="461" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="462"/>
+      <c r="D57" s="463"/>
+      <c r="E57" s="464" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="465"/>
+      <c r="G57" s="466" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="467" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="468"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="469" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B58" s="470" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="471"/>
+      <c r="D58" s="472"/>
+      <c r="E58" s="473" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="474"/>
+      <c r="G58" s="475" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="476" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="477"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="478" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B59" s="479" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="480"/>
+      <c r="D59" s="481"/>
+      <c r="E59" s="482" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="483"/>
+      <c r="G59" s="484" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="485" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="486"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:I1"/>
@@ -373,6 +1974,162 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
